--- a/ModelInputData.xlsx
+++ b/ModelInputData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\SS24\ResEco\gamsFiles\ownFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520ABEEB-C5A7-4DC0-841E-B63870852A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A93F23-3C99-48B8-B950-BF6548CBFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{309C3826-9965-49C7-90DF-8B965A5F667D}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
   <si>
     <t>Transport Cost</t>
   </si>
@@ -153,13 +153,16 @@
   </si>
   <si>
     <t>FarEast</t>
+  </si>
+  <si>
+    <t>intercept (b/a)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -170,6 +173,13 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
@@ -190,7 +200,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -198,11 +208,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -210,6 +235,15 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,7 +581,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="B48" sqref="B48:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -558,7 +592,7 @@
     <col min="11" max="11" width="12.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>28</v>
       </c>
@@ -566,26 +600,29 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="3"/>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>37</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>-0.08</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
+        <v>695529400</v>
+      </c>
+      <c r="D3" s="7">
         <v>1905.56</v>
       </c>
       <c r="E3" t="s">
@@ -598,47 +635,59 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>-0.16</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
+        <v>806752200</v>
+      </c>
+      <c r="D4" s="7">
         <v>2210.2800000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>-0.05</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
+        <v>89220600</v>
+      </c>
+      <c r="D5" s="7">
         <v>244.44</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>-0.02</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
+        <v>86745900</v>
+      </c>
+      <c r="D6" s="7">
         <v>237.66</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>-0.14000000000000001</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
+        <v>1013181600</v>
+      </c>
+      <c r="D7" s="7">
         <v>2775.84</v>
       </c>
     </row>
@@ -907,7 +956,7 @@
         <v>0.11825672332615116</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" t="s">
         <v>31</v>
@@ -927,12 +976,12 @@
         <v>0.56431569707126328</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>37</v>
       </c>
-      <c r="B28">
-        <v>1905.56</v>
+      <c r="B28" s="7">
+        <v>695529400</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
@@ -949,12 +998,12 @@
         <v>0.31742757960258555</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>1</v>
       </c>
-      <c r="B29">
-        <v>2210.2800000000002</v>
+      <c r="B29" s="7">
+        <v>806752200</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -970,12 +1019,12 @@
         <v>0.63833320154977469</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>2</v>
       </c>
-      <c r="B30">
-        <v>244.44</v>
+      <c r="B30" s="7">
+        <v>89220600</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
@@ -991,12 +1040,12 @@
         <v>0.36166679845022537</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>3</v>
       </c>
-      <c r="B31">
-        <v>237.66</v>
+      <c r="B31" s="7">
+        <v>86745900</v>
       </c>
       <c r="L31" t="s">
         <v>24</v>
@@ -1012,12 +1061,12 @@
         <v>0.55760076335470943</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32">
-        <v>2775.84</v>
+      <c r="B32" s="7">
+        <v>1013181600</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
@@ -1048,49 +1097,64 @@
         <v>0.24775977781686953</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38">
-        <v>10000000000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B38" s="7">
+        <v>7027710000</v>
+      </c>
+      <c r="C38" s="7">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>1</v>
       </c>
-      <c r="B39">
-        <v>10000000000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B39" s="7">
+        <v>1366925000</v>
+      </c>
+      <c r="C39" s="7">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>2</v>
       </c>
-      <c r="B40">
-        <v>10000000000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B40" s="7">
+        <v>4270500000</v>
+      </c>
+      <c r="C40" s="7">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>3</v>
       </c>
-      <c r="B41">
-        <v>10000000000</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="B41" s="7">
+        <v>12362550000</v>
+      </c>
+      <c r="C41" s="7">
+        <v>33.869999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42">
-        <v>10000000000</v>
+      <c r="B42" s="7">
+        <v>1448721500</v>
+      </c>
+      <c r="C42" s="7">
+        <v>3.9691000000000001</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.35">
@@ -1129,19 +1193,19 @@
         <v>37</v>
       </c>
       <c r="B48">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="C48">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D48">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E48">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F48">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.35">
@@ -1149,19 +1213,19 @@
         <v>1</v>
       </c>
       <c r="B49">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="C49">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D49">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E49">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F49">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.35">
@@ -1169,19 +1233,19 @@
         <v>2</v>
       </c>
       <c r="B50">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="C50">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D50">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E50">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F50">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.35">
@@ -1189,19 +1253,19 @@
         <v>3</v>
       </c>
       <c r="B51">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="C51">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D51">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E51">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F51">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.35">
@@ -1209,19 +1273,19 @@
         <v>38</v>
       </c>
       <c r="B52">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="C52">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="D52">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E52">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="F52">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
     </row>
   </sheetData>

--- a/ModelInputData.xlsx
+++ b/ModelInputData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\CloudDrive\Uni\SS24\ResEco\gamsFiles\ownFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A93F23-3C99-48B8-B950-BF6548CBFB21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F0735CB-6063-46B4-AF5A-460E224BD2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-16320" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{309C3826-9965-49C7-90DF-8B965A5F667D}"/>
   </bookViews>
@@ -581,7 +581,7 @@
   <dimension ref="A1:O52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:F52"/>
+      <selection activeCell="B28" sqref="B28:B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -617,10 +617,10 @@
         <v>37</v>
       </c>
       <c r="B3" s="7">
-        <v>-0.08</v>
+        <v>-4.0500000000000001E-2</v>
       </c>
       <c r="C3" s="7">
-        <v>695529400</v>
+        <v>405.56</v>
       </c>
       <c r="D3" s="7">
         <v>1905.56</v>
@@ -640,10 +640,10 @@
         <v>1</v>
       </c>
       <c r="B4" s="7">
-        <v>-0.16</v>
+        <v>-7.8E-2</v>
       </c>
       <c r="C4" s="7">
-        <v>806752200</v>
+        <v>390.28</v>
       </c>
       <c r="D4" s="7">
         <v>2210.2800000000002</v>
@@ -654,10 +654,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="7">
-        <v>-0.05</v>
+        <v>-0.17419999999999999</v>
       </c>
       <c r="C5" s="7">
-        <v>89220600</v>
+        <v>244.44</v>
       </c>
       <c r="D5" s="7">
         <v>244.44</v>
@@ -668,10 +668,10 @@
         <v>3</v>
       </c>
       <c r="B6" s="7">
-        <v>-0.02</v>
+        <v>-0.14810000000000001</v>
       </c>
       <c r="C6" s="7">
-        <v>86745900</v>
+        <v>237.66</v>
       </c>
       <c r="D6" s="7">
         <v>237.66</v>
@@ -682,10 +682,10 @@
         <v>38</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.14000000000000001</v>
+        <v>-3.56E-2</v>
       </c>
       <c r="C7" s="7">
-        <v>1013181600</v>
+        <v>425.84</v>
       </c>
       <c r="D7" s="7">
         <v>2775.84</v>
@@ -981,7 +981,7 @@
         <v>37</v>
       </c>
       <c r="B28" s="7">
-        <v>695529400</v>
+        <v>405.56</v>
       </c>
       <c r="L28" t="s">
         <v>20</v>
@@ -1003,7 +1003,7 @@
         <v>1</v>
       </c>
       <c r="B29" s="7">
-        <v>806752200</v>
+        <v>390.28</v>
       </c>
       <c r="L29" t="s">
         <v>13</v>
@@ -1024,7 +1024,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="7">
-        <v>89220600</v>
+        <v>244.44</v>
       </c>
       <c r="L30" t="s">
         <v>14</v>
@@ -1045,7 +1045,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="7">
-        <v>86745900</v>
+        <v>237.66</v>
       </c>
       <c r="L31" t="s">
         <v>24</v>
@@ -1066,7 +1066,7 @@
         <v>38</v>
       </c>
       <c r="B32" s="7">
-        <v>1013181600</v>
+        <v>425.84</v>
       </c>
       <c r="L32" t="s">
         <v>23</v>
